--- a/JOBCON/HERNANDEZ, AROLD JAMES.xlsx
+++ b/JOBCON/HERNANDEZ, AROLD JAMES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>PERIOD</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>JOBCON</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>12/12-17/2023</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1081,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1145,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1205,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1271,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1334,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1432,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1491,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1556,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1599,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1674,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1860,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1926,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1984,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2050,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2106,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2181,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2224,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2290,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2346,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2444,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2507,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2573,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2942,12 +2951,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="4785" topLeftCell="A9" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +3002,9 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="56">
+        <v>45110</v>
+      </c>
       <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
@@ -3104,7 +3115,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>0</v>
+        <v>0.16699999999999982</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3114,7 +3125,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>0</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3142,15 +3153,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="40">
+        <v>45110</v>
+      </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.167</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.167</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3158,15 +3173,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40">
+        <v>45169</v>
+      </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3174,15 +3193,19 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40">
+        <v>45199</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3190,15 +3213,19 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40">
+        <v>45230</v>
+      </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3206,15 +3233,19 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="40">
+        <v>45260</v>
+      </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3222,10 +3253,16 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43">
+        <v>6</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42" t="str">
@@ -3235,10 +3272,14 @@
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
@@ -3254,7 +3295,9 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="40">
+        <v>45322</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -3270,7 +3313,9 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="40">
+        <v>45351</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3286,7 +3331,9 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="40">
+        <v>45382</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3334,7 +3381,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3350,7 +3397,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -3542,7 +3589,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3558,7 +3605,7 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3750,7 +3797,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3766,7 +3813,7 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3958,7 +4005,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3974,7 +4021,7 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4166,7 +4213,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4182,7 +4229,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -5110,20 +5157,36 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5171,7 +5234,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,21 +5303,23 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>2</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
